--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>runmode</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>nitishprashar89@gmail.com</t>
-  </si>
-  <si>
-    <t>gamevs619</t>
   </si>
   <si>
     <t>tweetText</t>
@@ -385,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -412,7 +406,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -435,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,20 +450,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -489,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -497,7 +482,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
